--- a/BIO247Project/BIO247ProjectArticles/OR5T2path.xlsx
+++ b/BIO247Project/BIO247ProjectArticles/OR5T2path.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e56c0a1657867c1/Desktop/BIO247/BIO247Project/BIO247ProjectArticles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C9490572-8E75-41D0-8F36-BB488E5D54FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBA4C0A0-7C72-49F9-9F4F-4B7F62770DD6}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{C9490572-8E75-41D0-8F36-BB488E5D54FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99843C63-C3F9-40AB-AF5B-325632DB7AC3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F3AEB99-2D43-4F23-825C-BE7DA70CCC22}"/>
   </bookViews>
@@ -41,18 +41,6 @@
     <t>pathways</t>
   </si>
   <si>
-    <t>TCGA-UVM [miRNA vs RNA] GO: positive regulation of cell division [2040007978]</t>
-  </si>
-  <si>
-    <t>TCGA-READ [miRNA vs RNA] GO: detection of stimulus [2040002544]</t>
-  </si>
-  <si>
-    <t>TCGA-PCPG [miRNA vs RNA] GO: detection of chemical stimulus involved in sensory perception of smell [2040012314]</t>
-  </si>
-  <si>
-    <t>TCGA-DLBC [miRNA vs RNA] GO: detection of chemical stimulus involved in sensory perception [2040009486]</t>
-  </si>
-  <si>
     <t>Reactome</t>
   </si>
   <si>
@@ -114,6 +102,18 @@
   </si>
   <si>
     <t>CTD: Chemicals-Genes Interactions</t>
+  </si>
+  <si>
+    <t>TCGA-UVM [miRNA vs RNA] GO: positive regulation of cell division</t>
+  </si>
+  <si>
+    <t>TCGA-READ [miRNA vs RNA] GO: detection of stimulus</t>
+  </si>
+  <si>
+    <t>TCGA-PCPG [miRNA vs RNA] GO: detection of chemical stimulus involved in sensory perception of smell</t>
+  </si>
+  <si>
+    <t>TCGA-DLBC [miRNA vs RNA] GO: detection of chemical stimulus involved in sensory perception</t>
   </si>
 </sst>
 </file>
@@ -169,6 +169,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,7 +475,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,127 +487,127 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
